--- a/Configs/Object.xlsx
+++ b/Configs/Object.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\202510Spotlight\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B05F0F-7FF8-44FD-9055-4DE0EA6C56C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD38C22D-C8BF-4929-9D1D-AF58DEF17531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4597" yWindow="1080" windowWidth="19965" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,14 @@
   </si>
   <si>
     <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plyer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -507,6 +515,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>999</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Configs/Object.xlsx
+++ b/Configs/Object.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\202510Spotlight\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD38C22D-C8BF-4929-9D1D-AF58DEF17531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAB2EFD-0213-43D3-814B-42AB2CD00803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4597" yWindow="1080" windowWidth="19965" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,14 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可变方块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以自由变化的方块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>物件名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,19 +74,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>颜色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>玩家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>plyer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>透明状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hollow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1格方块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2格方块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2格高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1格高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -440,16 +452,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -460,16 +472,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -492,7 +504,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -500,10 +512,10 @@
         <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -520,10 +532,10 @@
         <v>999</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -532,6 +544,26 @@
         <v>2</v>
       </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
         <v>0</v>
       </c>
     </row>
